--- a/bioSample/bioSample_3569.xlsx
+++ b/bioSample/bioSample_3569.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">bioSampleNumber </t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>

--- a/bioSample/bioSample_3569.xlsx
+++ b/bioSample/bioSample_3569.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">marker_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marker_2</t>
   </si>
   <si>
     <t xml:space="preserve">12.28.18</t>
@@ -181,6 +184,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -262,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,9 +277,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.07"/>
@@ -313,28 +317,31 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>90</v>
@@ -345,25 +352,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>90</v>
@@ -372,62 +379,62 @@
         <v>4</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>90</v>
@@ -436,30 +443,30 @@
         <v>4</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>90</v>
@@ -468,62 +475,62 @@
         <v>4</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>90</v>
@@ -532,30 +539,30 @@
         <v>4</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>90</v>
@@ -564,30 +571,33 @@
         <v>5</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>90</v>
@@ -596,30 +606,30 @@
         <v>5</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>90</v>
@@ -628,30 +638,30 @@
         <v>5</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>90</v>
@@ -660,30 +670,30 @@
         <v>7</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>90</v>
@@ -692,30 +702,30 @@
         <v>4</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>90</v>
@@ -724,30 +734,30 @@
         <v>4</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>90</v>
@@ -758,25 +768,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>90</v>
@@ -785,30 +795,30 @@
         <v>7</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>90</v>
@@ -817,30 +827,30 @@
         <v>4</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>90</v>
@@ -849,30 +859,30 @@
         <v>4</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>90</v>
@@ -881,30 +891,30 @@
         <v>2</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>90</v>
@@ -915,25 +925,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>90</v>

--- a/bioSample/bioSample_3569.xlsx
+++ b/bioSample/bioSample_3569.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3579CC47-B2BF-414C-8418-807C68B9A10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE8635F-80BC-9A40-8C9B-B1B265CCF4AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13780" yWindow="460" windowWidth="19820" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="55">
   <si>
     <t>harvestDate</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>marker_1</t>
-  </si>
-  <si>
-    <t>marker_2</t>
   </si>
   <si>
     <t>12.28.18</t>
@@ -206,6 +203,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -553,7 +551,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,37 +599,35 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>90</v>
@@ -642,34 +638,34 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>90</v>
@@ -678,39 +674,39 @@
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>90</v>
@@ -719,39 +715,39 @@
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>90</v>
@@ -760,39 +756,39 @@
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>90</v>
@@ -801,39 +797,39 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>90</v>
@@ -842,39 +838,39 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>90</v>
@@ -883,39 +879,39 @@
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>90</v>
@@ -924,42 +920,39 @@
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>90</v>
@@ -968,39 +961,39 @@
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
         <v>90</v>
@@ -1009,39 +1002,39 @@
         <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12">
         <v>90</v>
@@ -1050,39 +1043,39 @@
         <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13">
         <v>90</v>
@@ -1091,39 +1084,39 @@
         <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14">
         <v>90</v>
@@ -1132,39 +1125,39 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15">
         <v>90</v>
@@ -1173,39 +1166,39 @@
         <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16">
         <v>90</v>
@@ -1214,39 +1207,39 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <v>90</v>
@@ -1255,39 +1248,39 @@
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18">
         <v>90</v>
@@ -1296,39 +1289,39 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19">
         <v>90</v>
@@ -1337,39 +1330,39 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20">
         <v>90</v>
@@ -1378,36 +1371,36 @@
         <v>5</v>
       </c>
       <c r="M20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <v>90</v>
